--- a/data/37-intersection map EV3 Solution.xlsx
+++ b/data/37-intersection map EV3 Solution.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.11354778853354</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13.11354778853354</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.90217128888889</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.90217128888889</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -506,47 +506,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.98074208666688</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.98074208666688</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.33030888888889</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10.58030888888889</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.23193381333354</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.23193381333354</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.74892444444445</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74892444444445</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -554,22 +552,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.63006176373354</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.63006176373354</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.10541813333334</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.10541813333334</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -577,72 +575,70 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.87677573893355</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>10.87677573893355</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11.20866497777778</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.20866497777778</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.58141702666685</v>
+        <v>16.54268263367969</v>
       </c>
       <c r="D7" t="n">
-        <v>15.58141702666685</v>
+        <v>16.54268263367969</v>
       </c>
       <c r="E7" t="n">
-        <v>10.19502666666667</v>
+        <v>10.2441612848222</v>
       </c>
       <c r="F7" t="n">
-        <v>10.19502666666667</v>
+        <v>10.4941612848222</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16.70055863333352</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.70055863333352</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.943077777777782</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.943077777777782</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -650,47 +646,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.22716690666686</v>
+        <v>17.29149090701302</v>
       </c>
       <c r="D9" t="n">
-        <v>17.22716690666686</v>
+        <v>17.29149090701302</v>
       </c>
       <c r="E9" t="n">
-        <v>9.574462222222227</v>
+        <v>10.07554572926664</v>
       </c>
       <c r="F9" t="n">
-        <v>9.824462222222227</v>
+        <v>10.07554572926664</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.177452978933555</v>
+        <v>18.26410024000081</v>
       </c>
       <c r="D10" t="n">
-        <v>8.177452978933555</v>
+        <v>18.26410024000081</v>
       </c>
       <c r="E10" t="n">
-        <v>11.38886064444445</v>
+        <v>9.091128888888891</v>
       </c>
       <c r="F10" t="n">
-        <v>11.38886064444445</v>
+        <v>9.091128888888891</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -698,97 +692,95 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.95492506000019</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>20.95492506000019</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.235282222222223</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.485282222222223</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5.288255218933562</v>
+        <v>15.94200769367968</v>
       </c>
       <c r="D13" t="n">
-        <v>23.63760827333331</v>
+        <v>15.94200769367968</v>
       </c>
       <c r="E13" t="n">
-        <v>11.58155631111111</v>
+        <v>10.62944350704442</v>
       </c>
       <c r="F13" t="n">
-        <v>14.47760319469693</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.89604688358582</v>
-      </c>
+        <v>10.62944350704442</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>19.76171678666686</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>19.76171678666686</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.753897777777778</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.753897777777778</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -796,51 +788,600 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>18.34630851333352</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18.34630851333352</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>9.072513333333333</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9.322513333333333</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17.73749196666752</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.22536584701302</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.209744444444446</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.64026350704442</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4305190625999735</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.82286608701304</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.82286608701304</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.88139239593331</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10.88139239593331</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.29625781367971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.29625781367971</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19.38324184666746</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19.38324184666746</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.839180000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.839180000000001</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.28018345333361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20.28018345333361</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.637231111111111</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.637231111111111</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20.95492506000023</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.95492506000023</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.235282222222223</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.485282222222223</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.74131708887974</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.74131708887974</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.68965795555555</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.68965795555555</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.25783106407976</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.63760827333331</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16.89290479999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17.42632923327864</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5334244332786544</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13.17711620701304</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13.17711620701304</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.50194888888888</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11.75194888888888</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.81345460034638</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.81345460034638</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.83389777777777</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.83389777777777</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.28684632701305</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.28684632701305</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.95251333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.95251333333333</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11.76023805367974</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.76023805367974</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.07112888888888</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.07112888888888</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.71516311367974</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.53916311367974</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.3064111111111</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16.3064111111111</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D39" t="n">
         <v>22</v>
       </c>
-      <c r="E16" t="n">
-        <v>14.84621875025249</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14.84621875025249</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>17.7949447888342</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17.7949447888342</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -853,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,160 +1418,2148 @@
           <t>v01TravelPath</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>vXiSoC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>vZetaTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>18</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18</v>
+      </c>
+      <c r="B39" t="n">
+        <v>28</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B42" t="n">
+        <v>21</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n">
+        <v>28</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21</v>
+      </c>
+      <c r="B45" t="n">
+        <v>28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B46" t="n">
         <v>26</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>23</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24</v>
+      </c>
+      <c r="B50" t="n">
+        <v>22</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25</v>
+      </c>
+      <c r="B53" t="n">
+        <v>26</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>25</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" t="n">
+        <v>34</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25</v>
+      </c>
+      <c r="B56" t="n">
+        <v>37</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27</v>
+      </c>
+      <c r="B58" t="n">
+        <v>28</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27</v>
+      </c>
+      <c r="B59" t="n">
+        <v>33</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27</v>
+      </c>
+      <c r="B60" t="n">
+        <v>35</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29</v>
+      </c>
+      <c r="B61" t="n">
+        <v>17</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>29</v>
+      </c>
+      <c r="B62" t="n">
+        <v>27</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29</v>
+      </c>
+      <c r="B63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>29</v>
+      </c>
+      <c r="B64" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>30</v>
+      </c>
+      <c r="B65" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>30</v>
+      </c>
+      <c r="B66" t="n">
+        <v>31</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>30</v>
+      </c>
+      <c r="B67" t="n">
+        <v>36</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31</v>
+      </c>
+      <c r="B68" t="n">
+        <v>36</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32</v>
+      </c>
+      <c r="B69" t="n">
+        <v>29</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33</v>
+      </c>
+      <c r="B70" t="n">
+        <v>32</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33</v>
+      </c>
+      <c r="B71" t="n">
+        <v>35</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34</v>
+      </c>
+      <c r="B72" t="n">
+        <v>27</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34</v>
+      </c>
+      <c r="B73" t="n">
+        <v>35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36</v>
+      </c>
+      <c r="B75" t="n">
+        <v>32</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37</v>
+      </c>
+      <c r="B77" t="n">
+        <v>34</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37</v>
+      </c>
+      <c r="B78" t="n">
+        <v>35</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
         <v>38</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+      <c r="B79" t="n">
+        <v>20</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38</v>
+      </c>
+      <c r="B80" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38</v>
+      </c>
+      <c r="B81" t="n">
+        <v>26</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>23</v>
+      </c>
+      <c r="B82" t="n">
+        <v>38</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25</v>
+      </c>
+      <c r="B83" t="n">
+        <v>38</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>14</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>12</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>8</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>15</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>15</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>19</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>19</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>22</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>16</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B110" t="n">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>16</v>
+      </c>
+      <c r="B111" t="n">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>31</v>
+      </c>
+      <c r="B112" t="n">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>16</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>8</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>17</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>18</v>
+      </c>
+      <c r="B116" t="n">
+        <v>16</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>19</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>18</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>31</v>
+      </c>
+      <c r="B119" t="n">
+        <v>17</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>27</v>
+      </c>
+      <c r="B120" t="n">
+        <v>18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>28</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>29</v>
+      </c>
+      <c r="B122" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>20</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>21</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>28</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>21</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>28</v>
+      </c>
+      <c r="B127" t="n">
+        <v>21</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>26</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>21</v>
+      </c>
+      <c r="B129" t="n">
+        <v>23</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>24</v>
+      </c>
+      <c r="B130" t="n">
+        <v>23</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>20</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>22</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>24</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>27</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>34</v>
+      </c>
+      <c r="B137" t="n">
+        <v>25</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>37</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>23</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>28</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>33</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>35</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>17</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>27</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>30</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>33</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>17</v>
+      </c>
+      <c r="B147" t="n">
+        <v>30</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>31</v>
+      </c>
+      <c r="B148" t="n">
+        <v>30</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>36</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>36</v>
+      </c>
+      <c r="B150" t="n">
+        <v>31</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>29</v>
+      </c>
+      <c r="B151" t="n">
+        <v>32</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>32</v>
+      </c>
+      <c r="B152" t="n">
+        <v>33</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>35</v>
+      </c>
+      <c r="B153" t="n">
+        <v>33</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>27</v>
+      </c>
+      <c r="B154" t="n">
+        <v>34</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>35</v>
+      </c>
+      <c r="B155" t="n">
+        <v>34</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>36</v>
+      </c>
+      <c r="B156" t="n">
+        <v>35</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>32</v>
+      </c>
+      <c r="B157" t="n">
+        <v>36</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>37</v>
+      </c>
+      <c r="B158" t="n">
+        <v>36</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>34</v>
+      </c>
+      <c r="B159" t="n">
+        <v>37</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>35</v>
+      </c>
+      <c r="B160" t="n">
+        <v>37</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>20</v>
+      </c>
+      <c r="B161" t="n">
+        <v>38</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>22</v>
+      </c>
+      <c r="B162" t="n">
+        <v>38</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>26</v>
+      </c>
+      <c r="B163" t="n">
+        <v>38</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>38</v>
+      </c>
+      <c r="B164" t="n">
+        <v>23</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>38</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/37-intersection map EV3 Solution.xlsx
+++ b/data/37-intersection map EV3 Solution.xlsx
@@ -604,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.54268263367969</v>
+        <v>16.54265515333335</v>
       </c>
       <c r="D7" t="n">
-        <v>16.54268263367969</v>
+        <v>16.54265515333335</v>
       </c>
       <c r="E7" t="n">
-        <v>10.2441612848222</v>
+        <v>10.24415333333319</v>
       </c>
       <c r="F7" t="n">
-        <v>10.4941612848222</v>
+        <v>10.49415333333319</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.29149090701302</v>
+        <v>17.29146342666645</v>
       </c>
       <c r="D9" t="n">
-        <v>17.29149090701302</v>
+        <v>17.29146342666645</v>
       </c>
       <c r="E9" t="n">
-        <v>10.07554572926664</v>
+        <v>10.07553777777763</v>
       </c>
       <c r="F9" t="n">
-        <v>10.07554572926664</v>
+        <v>10.07553777777763</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -675,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>18.26410024000081</v>
+        <v>18.26410023999938</v>
       </c>
       <c r="D10" t="n">
-        <v>18.26410024000081</v>
+        <v>18.26410023999938</v>
       </c>
       <c r="E10" t="n">
-        <v>9.091128888888891</v>
+        <v>9.091128888888854</v>
       </c>
       <c r="F10" t="n">
-        <v>9.091128888888891</v>
+        <v>9.091128888888854</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>15.94200769367968</v>
+        <v>15.94198021333335</v>
       </c>
       <c r="D13" t="n">
-        <v>15.94200769367968</v>
+        <v>15.94198021333335</v>
       </c>
       <c r="E13" t="n">
-        <v>10.62944350704442</v>
+        <v>10.62943555555542</v>
       </c>
       <c r="F13" t="n">
-        <v>10.62944350704442</v>
+        <v>10.62943555555542</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>17.73749196666752</v>
+        <v>17.73749276153274</v>
       </c>
       <c r="D16" t="n">
-        <v>19.22536584701302</v>
+        <v>19.22533836666613</v>
       </c>
       <c r="E16" t="n">
-        <v>9.209744444444446</v>
+        <v>9.209744674440429</v>
       </c>
       <c r="F16" t="n">
-        <v>9.64026350704442</v>
+        <v>9.640255555555413</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4305190625999735</v>
+        <v>0.4305108811149836</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -848,16 +848,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>14.82286608701304</v>
+        <v>14.82283860666671</v>
       </c>
       <c r="D17" t="n">
-        <v>14.82286608701304</v>
+        <v>14.82283860666671</v>
       </c>
       <c r="E17" t="n">
-        <v>10.88139239593331</v>
+        <v>10.88138444444431</v>
       </c>
       <c r="F17" t="n">
-        <v>10.88139239593331</v>
+        <v>10.88138444444431</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -871,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>14.29625781367971</v>
+        <v>14.29623033333362</v>
       </c>
       <c r="D18" t="n">
-        <v>14.29625781367971</v>
+        <v>14.29623033333362</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19.38324184666746</v>
+        <v>19.383241846667</v>
       </c>
       <c r="D20" t="n">
-        <v>19.38324184666746</v>
+        <v>19.383241846667</v>
       </c>
       <c r="E20" t="n">
-        <v>8.839180000000001</v>
+        <v>8.839179999999986</v>
       </c>
       <c r="F20" t="n">
-        <v>8.839180000000001</v>
+        <v>8.839179999999986</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.28018345333361</v>
+        <v>20.28018345333358</v>
       </c>
       <c r="D22" t="n">
-        <v>20.28018345333361</v>
+        <v>20.28018345333358</v>
       </c>
       <c r="E22" t="n">
-        <v>8.637231111111111</v>
+        <v>8.637231111111127</v>
       </c>
       <c r="F22" t="n">
-        <v>8.637231111111111</v>
+        <v>8.637231111111127</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>20.95492506000023</v>
+        <v>20.95492506000025</v>
       </c>
       <c r="D24" t="n">
-        <v>20.95492506000023</v>
+        <v>20.95492506000025</v>
       </c>
       <c r="E24" t="n">
         <v>8.235282222222223</v>
@@ -1059,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>21.74131708887974</v>
+        <v>21.74128960853395</v>
       </c>
       <c r="D26" t="n">
-        <v>21.74131708887974</v>
+        <v>21.74128960853395</v>
       </c>
       <c r="E26" t="n">
-        <v>16.68965795555555</v>
+        <v>16.68965772555981</v>
       </c>
       <c r="F26" t="n">
-        <v>16.68965795555555</v>
+        <v>16.68965772555981</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>20.25783106407976</v>
+        <v>20.25780437859986</v>
       </c>
       <c r="D27" t="n">
         <v>23.63760827333331</v>
@@ -1091,13 +1091,13 @@
         <v>16.89290479999999</v>
       </c>
       <c r="F27" t="n">
-        <v>17.42632923327864</v>
+        <v>17.42633344500211</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5334244332786544</v>
+        <v>0.5334286450021239</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1155,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>13.17711620701304</v>
+        <v>13.17708872666679</v>
       </c>
       <c r="D30" t="n">
-        <v>13.17711620701304</v>
+        <v>13.17708872666679</v>
       </c>
       <c r="E30" t="n">
-        <v>11.50194888888888</v>
+        <v>11.50194888888866</v>
       </c>
       <c r="F30" t="n">
-        <v>11.75194888888888</v>
+        <v>11.75194888888866</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1226,16 +1226,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>12.81345460034638</v>
+        <v>12.81342712000013</v>
       </c>
       <c r="D33" t="n">
-        <v>12.81345460034638</v>
+        <v>12.81342712000013</v>
       </c>
       <c r="E33" t="n">
-        <v>11.83389777777777</v>
+        <v>11.83389777777754</v>
       </c>
       <c r="F33" t="n">
-        <v>11.83389777777777</v>
+        <v>11.83389777777754</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>12.28684632701305</v>
+        <v>12.28681884666682</v>
       </c>
       <c r="D34" t="n">
-        <v>12.28684632701305</v>
+        <v>12.28681884666682</v>
       </c>
       <c r="E34" t="n">
-        <v>11.95251333333333</v>
+        <v>11.9525133333331</v>
       </c>
       <c r="F34" t="n">
-        <v>11.95251333333333</v>
+        <v>11.9525133333331</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1295,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.76023805367974</v>
+        <v>11.76021057333338</v>
       </c>
       <c r="D36" t="n">
-        <v>11.76023805367974</v>
+        <v>11.76021057333338</v>
       </c>
       <c r="E36" t="n">
-        <v>12.07112888888888</v>
+        <v>12.07112888888866</v>
       </c>
       <c r="F36" t="n">
-        <v>12.07112888888888</v>
+        <v>12.07112888888866</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1341,22 +1341,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>10.71516311367974</v>
+        <v>10.71513642819855</v>
       </c>
       <c r="D38" t="n">
-        <v>24.53916311367974</v>
+        <v>24.53913563333407</v>
       </c>
       <c r="E38" t="n">
-        <v>12.3064111111111</v>
+        <v>12.30641111111088</v>
       </c>
       <c r="F38" t="n">
-        <v>16.3064111111111</v>
+        <v>16.30641088111537</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.999999770004491</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1374,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>17.7949447888342</v>
+        <v>17.79494900055767</v>
       </c>
       <c r="F39" t="n">
-        <v>17.7949447888342</v>
+        <v>17.79494900055767</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1827,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1931,7 +1931,7 @@
         <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
         <v>26</v>
       </c>
       <c r="C51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
         <v>37</v>
       </c>
       <c r="C56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
         <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
         <v>32</v>
       </c>
       <c r="C70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
         <v>35</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
@@ -2412,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
@@ -2425,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -2711,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
         <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -2854,7 +2854,7 @@
         <v>14</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
         <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
         <v>25</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -3218,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="C139" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -3309,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -3400,7 +3400,7 @@
         <v>33</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -3478,7 +3478,7 @@
         <v>37</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>

--- a/data/37-intersection map EV3 Solution.xlsx
+++ b/data/37-intersection map EV3 Solution.xlsx
@@ -486,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.37314754853412</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.37314754853412</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.16104240000011</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.16104240000011</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -604,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.54265515333335</v>
+        <v>9.505953250400784</v>
       </c>
       <c r="D7" t="n">
-        <v>16.54265515333335</v>
+        <v>9.505953250400784</v>
       </c>
       <c r="E7" t="n">
-        <v>10.24415333333319</v>
+        <v>9.482904800000115</v>
       </c>
       <c r="F7" t="n">
-        <v>10.49415333333319</v>
+        <v>9.732904800000115</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.29146342666645</v>
+        <v>10.25476152373412</v>
       </c>
       <c r="D9" t="n">
-        <v>17.29146342666645</v>
+        <v>10.25476152373412</v>
       </c>
       <c r="E9" t="n">
-        <v>10.07553777777763</v>
+        <v>9.314289244444559</v>
       </c>
       <c r="F9" t="n">
-        <v>10.07553777777763</v>
+        <v>9.314289244444559</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -672,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>18.26410023999938</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.26410023999938</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.091128888888854</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.091128888888854</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -695,19 +695,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12.85663357333411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12.85663357333411</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.957795555555665</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.957795555555665</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.94198021333335</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.94198021333335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>10.62943555555542</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.62943555555542</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -768,19 +768,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.905278310400785</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.905278310400785</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.868187022222347</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.868187022222347</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -791,25 +791,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>8.156470037067452</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11.02843502293324</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10.0368025777779</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>10.49007987984005</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.4532773020621517</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -818,25 +818,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>17.73749276153274</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>19.22533836666613</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.209744674440429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.640255555555413</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4305108811149836</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -848,16 +848,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>14.82283860666671</v>
+        <v>9.837028998133245</v>
       </c>
       <c r="D17" t="n">
-        <v>14.82283860666671</v>
+        <v>9.837028998133245</v>
       </c>
       <c r="E17" t="n">
-        <v>10.88138444444431</v>
+        <v>10.6533267242845</v>
       </c>
       <c r="F17" t="n">
-        <v>10.88138444444431</v>
+        <v>10.6533267242845</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -871,16 +871,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>14.29623033333362</v>
+        <v>9.310420724799911</v>
       </c>
       <c r="D18" t="n">
-        <v>14.29623033333362</v>
+        <v>9.310420724799911</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10.77194227984006</v>
       </c>
       <c r="F18" t="n">
-        <v>11.25</v>
+        <v>11.02194227984006</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19.383241846667</v>
+        <v>13.38324184666742</v>
       </c>
       <c r="D20" t="n">
-        <v>19.383241846667</v>
+        <v>13.38324184666742</v>
       </c>
       <c r="E20" t="n">
-        <v>8.839179999999986</v>
+        <v>8.839180000000106</v>
       </c>
       <c r="F20" t="n">
-        <v>8.839179999999986</v>
+        <v>8.839180000000106</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -939,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.28018345333358</v>
+        <v>14.28018345333364</v>
       </c>
       <c r="D22" t="n">
-        <v>20.28018345333358</v>
+        <v>14.28018345333364</v>
       </c>
       <c r="E22" t="n">
-        <v>8.637231111111127</v>
+        <v>8.637231111111207</v>
       </c>
       <c r="F22" t="n">
-        <v>8.637231111111127</v>
+        <v>8.637231111111207</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>20.95492506000025</v>
+        <v>14.95492506000006</v>
       </c>
       <c r="D24" t="n">
-        <v>20.95492506000025</v>
+        <v>14.95492506000006</v>
       </c>
       <c r="E24" t="n">
-        <v>8.235282222222223</v>
+        <v>8.235282222222283</v>
       </c>
       <c r="F24" t="n">
-        <v>8.485282222222223</v>
+        <v>8.485282222222283</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1059,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>21.74128960853395</v>
+        <v>16.74880827333328</v>
       </c>
       <c r="D26" t="n">
-        <v>21.74128960853395</v>
+        <v>16.74880827333328</v>
       </c>
       <c r="E26" t="n">
-        <v>16.68965772555981</v>
+        <v>16.46298467984005</v>
       </c>
       <c r="F26" t="n">
-        <v>16.68965772555981</v>
+        <v>16.46298467984005</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1079,25 +1079,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>20.25780437859986</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>23.63760827333331</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.89290479999999</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.42633344500211</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5334286450021239</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1106,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>13.17708872666679</v>
+        <v>8.191279118133247</v>
       </c>
       <c r="D30" t="n">
-        <v>13.17708872666679</v>
+        <v>8.191279118133247</v>
       </c>
       <c r="E30" t="n">
-        <v>11.50194888888866</v>
+        <v>11.27389116872894</v>
       </c>
       <c r="F30" t="n">
-        <v>11.75194888888866</v>
+        <v>11.52389116872894</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>12.81342712000013</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>12.81342712000013</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>11.83389777777754</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>11.83389777777754</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>12.28681884666682</v>
+        <v>7.29433751146658</v>
       </c>
       <c r="D34" t="n">
-        <v>12.28681884666682</v>
+        <v>7.29433751146658</v>
       </c>
       <c r="E34" t="n">
-        <v>11.9525133333331</v>
+        <v>11.72584005761783</v>
       </c>
       <c r="F34" t="n">
-        <v>11.9525133333331</v>
+        <v>11.72584005761783</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1295,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.76021057333338</v>
+        <v>6.767729238133271</v>
       </c>
       <c r="D36" t="n">
-        <v>11.76021057333338</v>
+        <v>6.767729238133271</v>
       </c>
       <c r="E36" t="n">
-        <v>12.07112888888866</v>
+        <v>11.84445561317339</v>
       </c>
       <c r="F36" t="n">
-        <v>12.07112888888866</v>
+        <v>11.84445561317339</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>10.71513642819855</v>
+        <v>5.722654298133282</v>
       </c>
       <c r="D38" t="n">
-        <v>24.53913563333407</v>
+        <v>19.54665429813328</v>
       </c>
       <c r="E38" t="n">
-        <v>12.30641111111088</v>
+        <v>12.07973783539561</v>
       </c>
       <c r="F38" t="n">
-        <v>16.30641088111537</v>
+        <v>16.07973783539561</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.999999770004491</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1368,16 +1368,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>17.79494900055767</v>
+        <v>16.63160023539561</v>
       </c>
       <c r="F39" t="n">
-        <v>17.79494900055767</v>
+        <v>16.63160023539561</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -1515,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1684,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1694,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
         <v>11</v>
       </c>
-      <c r="B23" t="n">
-        <v>19</v>
-      </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1720,23 +1720,23 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1746,20 +1746,20 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1798,36 +1798,36 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1837,10 +1837,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -1850,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1863,20 +1863,20 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1915,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1928,23 +1928,23 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1967,33 +1967,33 @@
         <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B45" t="n">
         <v>21</v>
-      </c>
-      <c r="B45" t="n">
-        <v>28</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2003,26 +2003,26 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -2032,23 +2032,23 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>23</v>
+      </c>
+      <c r="B49" t="n">
         <v>24</v>
       </c>
-      <c r="B49" t="n">
-        <v>20</v>
-      </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -2058,10 +2058,10 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>25</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -2110,10 +2110,10 @@
         <v>25</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -2123,10 +2123,10 @@
         <v>25</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -2136,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
@@ -2162,10 +2162,10 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -2175,10 +2175,10 @@
         <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -2188,20 +2188,20 @@
         <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>29</v>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -2240,23 +2240,23 @@
         <v>29</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
@@ -2279,46 +2279,46 @@
         <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="n">
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2331,23 +2331,23 @@
         <v>33</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
@@ -2357,36 +2357,36 @@
         <v>34</v>
       </c>
       <c r="B73" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>34</v>
+      </c>
+      <c r="B74" t="n">
         <v>35</v>
       </c>
-      <c r="B74" t="n">
-        <v>36</v>
-      </c>
       <c r="C74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>35</v>
+      </c>
+      <c r="B75" t="n">
         <v>36</v>
       </c>
-      <c r="B75" t="n">
-        <v>32</v>
-      </c>
       <c r="C75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
@@ -2396,23 +2396,23 @@
         <v>36</v>
       </c>
       <c r="B76" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>36</v>
+      </c>
+      <c r="B77" t="n">
         <v>37</v>
       </c>
-      <c r="B77" t="n">
-        <v>34</v>
-      </c>
       <c r="C77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
@@ -2422,20 +2422,20 @@
         <v>37</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>38</v>
       </c>
       <c r="B81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>38</v>
@@ -2497,20 +2497,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2523,98 +2523,98 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
         <v>2</v>
       </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
       <c r="C89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
         <v>3</v>
       </c>
-      <c r="B90" t="n">
-        <v>4</v>
-      </c>
       <c r="C90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
@@ -2627,33 +2627,33 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
@@ -2666,65 +2666,65 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -2734,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2744,23 +2744,23 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2773,20 +2773,20 @@
         <v>19</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2796,49 +2796,49 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2848,26 +2848,26 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
         <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -2877,33 +2877,33 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" t="n">
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -2942,46 +2942,46 @@
         <v>18</v>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2991,46 +2991,46 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B122" t="n">
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B125" t="n">
         <v>19</v>
@@ -3046,10 +3046,10 @@
         <v>21</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -3059,20 +3059,20 @@
         <v>28</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3082,36 +3082,36 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>28</v>
+      </c>
+      <c r="B129" t="n">
         <v>21</v>
       </c>
-      <c r="B129" t="n">
-        <v>23</v>
-      </c>
       <c r="C129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B130" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B133" t="n">
         <v>24</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>22</v>
+      </c>
+      <c r="B134" t="n">
         <v>24</v>
       </c>
-      <c r="B134" t="n">
-        <v>25</v>
-      </c>
       <c r="C134" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3173,49 +3173,49 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B136" t="n">
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B137" t="n">
         <v>25</v>
       </c>
       <c r="C137" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B138" t="n">
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3225,101 +3225,101 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B140" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B141" t="n">
         <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" t="n">
         <v>27</v>
       </c>
       <c r="C142" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
         <v>27</v>
       </c>
-      <c r="B144" t="n">
-        <v>29</v>
-      </c>
       <c r="C144" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B146" t="n">
         <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B147" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -3329,91 +3329,91 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
         <v>30</v>
       </c>
       <c r="C149" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B150" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B151" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B152" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B153" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B154" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -3423,85 +3423,85 @@
         <v>35</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B157" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B161" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3511,36 +3511,36 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B162" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
         <v>38</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>22</v>
+      </c>
+      <c r="B164" t="n">
         <v>38</v>
-      </c>
-      <c r="B164" t="n">
-        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3550,16 +3550,42 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>26</v>
+      </c>
+      <c r="B165" t="n">
         <v>38</v>
-      </c>
-      <c r="B165" t="n">
-        <v>25</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>38</v>
+      </c>
+      <c r="B166" t="n">
+        <v>23</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>38</v>
+      </c>
+      <c r="B167" t="n">
+        <v>25</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
